--- a/banhang24/Template/ExportExcel/Report/BaoCaoTaiChinh/Teamplate_BaoSoQuyTheoChiNhanh.xlsx
+++ b/banhang24/Template/ExportExcel/Report/BaoCaoTaiChinh/Teamplate_BaoSoQuyTheoChiNhanh.xlsx
@@ -12,15 +12,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$4:$4</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Tổng cộng:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>BÁO CÁO SỔ QUỸ THEO CHI NHÁNH</t>
   </si>
@@ -40,7 +37,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -84,7 +81,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -96,14 +93,8 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -126,25 +117,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -165,9 +143,6 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -176,9 +151,6 @@
     </xf>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -491,11 +463,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,35 +480,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>2</v>
+      <c r="B4" s="10" t="s">
+        <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>3</v>
+      <c r="D4" s="10" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -682,23 +654,6 @@
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="8">
-        <f>SUM(B$5:B28)</f>
-        <v>0</v>
-      </c>
-      <c r="C29" s="8">
-        <f>SUM(C$5:C28)</f>
-        <v>0</v>
-      </c>
-      <c r="D29" s="8">
-        <f>SUM(D$5:D28)</f>
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
